--- a/Project-Quincy-Wells/Potential HBP Wells.xlsx
+++ b/Project-Quincy-Wells/Potential HBP Wells.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mishaun_Bhakta/Documents/Python &amp; Projects/Projects/Active Well Finder by Geospatial Filter/Project - Quincy Wells/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mishaun_Bhakta/Documents/Python &amp; Projects/Projects/Active Well Finder by Geospatial Filter/Project-Quincy-Wells/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34262B3A-0462-9A42-9D04-9D65F84E0268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC2C91D-5626-4B4C-924E-4D7134ED9BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="600" windowWidth="32180" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PivotTable" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="186" r:id="rId5"/>
+    <pivotCache cacheId="187" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="356">
   <si>
     <t>APIUWI</t>
   </si>
@@ -512,27 +512,6 @@
     <t>TP SU68;B J JOHNSON HEIRS 001-ALT</t>
   </si>
   <si>
-    <t>HA RA SU108;FLOURNOY 29-20 HC 002-ALT</t>
-  </si>
-  <si>
-    <t>HA RA SU108;AGURS 29-20 HC 001-ALT</t>
-  </si>
-  <si>
-    <t>HA RA SU108;ABNEY 30-19 HC 002-ALT</t>
-  </si>
-  <si>
-    <t>HA RA SU108;FLOURNOY 29-20 HC 001-ALT</t>
-  </si>
-  <si>
-    <t>FRED VUB;JOHNSON 32 H 001</t>
-  </si>
-  <si>
-    <t>HA RA SU108;AGURS 29-20 HC 002-ALT</t>
-  </si>
-  <si>
-    <t>HA RA SU108;ABNEY 30-19 HC 003-ALT</t>
-  </si>
-  <si>
     <t>WX F RB SU6;KAUFFMAN 006</t>
   </si>
   <si>
@@ -724,9 +703,6 @@
   </si>
   <si>
     <t>VERMILION (LA)</t>
-  </si>
-  <si>
-    <t>no active wells found in 0.5 mi radius nan</t>
   </si>
   <si>
     <t>BORDEN (TX)</t>
@@ -1186,7 +1162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,14 +1175,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1255,7 +1223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1292,12 +1260,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1324,12 +1286,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1345,23 +1307,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1369,24 +1322,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="224">
-    <dxf>
-      <font>
-        <color theme="3" tint="-0.249977111117893"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
+  <dxfs count="122">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1607,441 +1550,8 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+        <color rgb="FF0070C0"/>
       </font>
     </dxf>
     <dxf>
@@ -2165,6 +1675,11 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2410,8 +1925,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>430401</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -2487,9 +2002,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>526143</xdr:colOff>
+      <xdr:colOff>526142</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>43626</xdr:rowOff>
+      <xdr:rowOff>98055</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -2565,9 +2080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>172358</xdr:colOff>
+      <xdr:colOff>172357</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>9071</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -36445,8 +35960,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71D4A785-F1D3-A349-A264-E6CDA92DCA41}" name="PivotTable1" cacheId="186" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Inactive Well -&gt; Active Well in 0.5 mi radius">
-  <location ref="B3:B144" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71D4A785-F1D3-A349-A264-E6CDA92DCA41}" name="PivotTable1" cacheId="187" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Inactive Well -&gt; Active Well in 0.5 mi radius">
+  <location ref="B3:B82" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="131">
     <pivotField axis="axisRow" showAll="0">
       <items count="37">
@@ -36801,8 +36316,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -36817,7 +36332,7 @@
     <field x="0"/>
     <field x="129"/>
   </rowFields>
-  <rowItems count="141">
+  <rowItems count="79">
     <i>
       <x/>
     </i>
@@ -36828,21 +36343,6 @@
       <x v="3"/>
     </i>
     <i r="3">
-      <x v="3"/>
-    </i>
-    <i r="3">
-      <x v="5"/>
-    </i>
-    <i r="3">
-      <x v="6"/>
-    </i>
-    <i r="3">
-      <x v="9"/>
-    </i>
-    <i r="3">
-      <x v="10"/>
-    </i>
-    <i r="3">
       <x v="24"/>
     </i>
     <i r="1">
@@ -36850,27 +36350,6 @@
     </i>
     <i r="2">
       <x v="11"/>
-    </i>
-    <i r="3">
-      <x v="3"/>
-    </i>
-    <i r="3">
-      <x v="5"/>
-    </i>
-    <i r="3">
-      <x v="6"/>
-    </i>
-    <i r="3">
-      <x v="7"/>
-    </i>
-    <i r="3">
-      <x v="8"/>
-    </i>
-    <i r="3">
-      <x v="9"/>
-    </i>
-    <i r="3">
-      <x v="10"/>
     </i>
     <i r="3">
       <x v="23"/>
@@ -36921,22 +36400,10 @@
       <x/>
     </i>
     <i r="3">
-      <x v="4"/>
-    </i>
-    <i r="3">
       <x v="26"/>
     </i>
     <i r="3">
-      <x v="27"/>
-    </i>
-    <i r="3">
-      <x v="28"/>
-    </i>
-    <i r="3">
       <x v="29"/>
-    </i>
-    <i r="3">
-      <x v="30"/>
     </i>
     <i r="3">
       <x v="31"/>
@@ -36946,9 +36413,6 @@
     </i>
     <i r="3">
       <x v="33"/>
-    </i>
-    <i r="3">
-      <x v="34"/>
     </i>
     <i>
       <x v="2"/>
@@ -37103,141 +36567,6 @@
     <i r="3">
       <x v="25"/>
     </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="3">
-      <x v="35"/>
-    </i>
-    <i r="4">
-      <x v="26"/>
-    </i>
-    <i r="5">
-      <x v="35"/>
-    </i>
-    <i r="6">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="3">
-      <x v="35"/>
-    </i>
-    <i r="4">
-      <x v="26"/>
-    </i>
-    <i r="5">
-      <x v="35"/>
-    </i>
-    <i r="6">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="3">
-      <x v="35"/>
-    </i>
-    <i r="4">
-      <x v="26"/>
-    </i>
-    <i r="5">
-      <x v="35"/>
-    </i>
-    <i r="6">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="35"/>
-    </i>
-    <i r="4">
-      <x v="26"/>
-    </i>
-    <i r="5">
-      <x v="35"/>
-    </i>
-    <i r="6">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="3">
-      <x v="35"/>
-    </i>
-    <i r="4">
-      <x v="26"/>
-    </i>
-    <i r="5">
-      <x v="35"/>
-    </i>
-    <i r="6">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="3">
-      <x v="35"/>
-    </i>
-    <i r="4">
-      <x v="26"/>
-    </i>
-    <i r="5">
-      <x v="35"/>
-    </i>
-    <i r="6">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="3">
-      <x v="35"/>
-    </i>
-    <i r="4">
-      <x v="26"/>
-    </i>
-    <i r="5">
-      <x v="35"/>
-    </i>
-    <i r="6">
-      <x v="6"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -37246,47 +36575,47 @@
     <i/>
   </colItems>
   <formats count="52">
-    <format dxfId="223">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="125" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="222">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="127" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="118">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="219">
+    <format dxfId="117">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="218">
+    <format dxfId="116">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="217">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="215">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -37299,7 +36628,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -37312,7 +36641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -37327,7 +36656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="212">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -37340,7 +36669,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="211">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="1" selected="0">
@@ -37352,7 +36681,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37367,7 +36696,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37382,7 +36711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37397,7 +36726,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37412,7 +36741,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37427,7 +36756,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="205">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37442,7 +36771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37457,7 +36786,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="203">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37472,7 +36801,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="202">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37487,7 +36816,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="201">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37502,7 +36831,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="200">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="4" count="1" selected="0">
@@ -37517,189 +36846,189 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="199">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="128" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="198">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="125" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="197">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="196">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="195">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="125" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="125" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="193">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="125" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="192">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="125" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="191">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="126" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="190">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="126" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="126" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="188">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="126" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="187">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="125" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="186">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="125" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="185">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="127" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="184">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="125" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="126" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="126" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="128" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="179">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="129" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="129" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="129" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="175">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="128" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="173">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="6">
           <reference field="0" count="1">
@@ -37723,7 +37052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="126" count="0"/>
@@ -37751,14 +37080,14 @@
   <data>
     <tabular pivotCacheId="650783925">
       <items count="8">
-        <i x="5" s="1"/>
         <i x="2" s="1"/>
         <i x="3" s="1"/>
         <i x="0" s="1"/>
         <i x="4" s="1"/>
-        <i x="6" s="1"/>
-        <i x="1" s="1"/>
         <i x="7" s="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -37773,24 +37102,24 @@
   <data>
     <tabular pivotCacheId="650783925">
       <items count="18">
-        <i x="10" s="1"/>
-        <i x="9" s="1"/>
         <i x="3" s="1"/>
-        <i x="13" s="1"/>
         <i x="17" s="1"/>
-        <i x="14" s="1"/>
-        <i x="16" s="1"/>
         <i x="2" s="1"/>
         <i x="1" s="1"/>
         <i x="0" s="1"/>
         <i x="12" s="1"/>
         <i x="11" s="1"/>
-        <i x="4" s="1"/>
-        <i x="15" s="1"/>
         <i x="8" s="1"/>
         <i x="5" s="1"/>
         <i x="6" s="1"/>
         <i x="7" s="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -37805,8 +37134,8 @@
   <data>
     <tabular pivotCacheId="650783925">
       <items count="3">
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
         <i x="0" s="1"/>
       </items>
     </tabular>
@@ -37823,7 +37152,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{603BC9FA-2BCA-784C-9112-B1A875FEB9AB}" name="Table2" displayName="Table2" ref="A1:K76" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{603BC9FA-2BCA-784C-9112-B1A875FEB9AB}" name="Table2" displayName="Table2" ref="A1:K76" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="A1:K76" xr:uid="{603BC9FA-2BCA-784C-9112-B1A875FEB9AB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K76">
     <sortCondition ref="D2:D76"/>
@@ -37831,24 +37160,24 @@
     <sortCondition ref="K2:K76"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{836233F9-2798-1540-A1BB-86C68EF1EC88}" name="Reference Inactive API" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{0340D0C8-C19C-D249-92B1-2B52D418F9C3}" name="Reference Inactive Well Name" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{4F3F448F-B86B-5146-AC86-FA893042F5BC}" name="Reference Inactive Well Last Prod Date" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{C86FA93F-9EB3-544C-83AE-97DD92B17A6D}" name="County" dataDxfId="165"/>
-    <tableColumn id="5" xr3:uid="{56967924-B018-774B-B462-14B83AE0F81A}" name="APIUWI" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{E2BE4955-1EA7-F248-BB98-52A7D8098B37}" name="OpAlias" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{30E5F3DC-3A96-4D44-8CF5-1EFD63B6F10B}" name="LeaseName" dataDxfId="162"/>
-    <tableColumn id="8" xr3:uid="{CBA62AB8-0B70-A945-BEB1-855B707BDFC5}" name="WellNo" dataDxfId="161"/>
-    <tableColumn id="9" xr3:uid="{F33063AE-51A7-A14F-971E-A45E1170D965}" name="FstPrdDate" dataDxfId="160"/>
-    <tableColumn id="10" xr3:uid="{56943CC4-8A1F-9340-98D5-4F9E8C769312}" name="Well Active within 1 Year of Last Prod Date" dataDxfId="159"/>
-    <tableColumn id="11" xr3:uid="{B0976C3A-B059-5646-9952-DDC2FE88EBC6}" name="Well Potentially HBP Lease?" dataDxfId="158"/>
+    <tableColumn id="1" xr3:uid="{836233F9-2798-1540-A1BB-86C68EF1EC88}" name="Reference Inactive API" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{0340D0C8-C19C-D249-92B1-2B52D418F9C3}" name="Reference Inactive Well Name" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{4F3F448F-B86B-5146-AC86-FA893042F5BC}" name="Reference Inactive Well Last Prod Date" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{C86FA93F-9EB3-544C-83AE-97DD92B17A6D}" name="County" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{56967924-B018-774B-B462-14B83AE0F81A}" name="APIUWI" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{E2BE4955-1EA7-F248-BB98-52A7D8098B37}" name="OpAlias" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{30E5F3DC-3A96-4D44-8CF5-1EFD63B6F10B}" name="LeaseName" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{CBA62AB8-0B70-A945-BEB1-855B707BDFC5}" name="WellNo" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{F33063AE-51A7-A14F-971E-A45E1170D965}" name="FstPrdDate" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{56943CC4-8A1F-9340-98D5-4F9E8C769312}" name="Well Active within 1 Year of Last Prod Date" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{B0976C3A-B059-5646-9952-DDC2FE88EBC6}" name="Well Potentially HBP Lease?" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{796F162B-DCE3-EB4B-A8F7-38FDC6962C4E}" name="SourceTable" displayName="SourceTable" ref="A1:EA76" totalsRowShown="0" headerRowDxfId="157" headerRowBorderDxfId="156" tableBorderDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{796F162B-DCE3-EB4B-A8F7-38FDC6962C4E}" name="SourceTable" displayName="SourceTable" ref="A1:EA76" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A1:EA76" xr:uid="{796F162B-DCE3-EB4B-A8F7-38FDC6962C4E}"/>
   <tableColumns count="131">
     <tableColumn id="1" xr3:uid="{106C864D-93F0-3A41-A394-332E62197114}" name="APIUWI">
@@ -38537,13 +37866,13 @@
   <dimension ref="B1:B214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
@@ -38551,7 +37880,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="40" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
@@ -38559,7 +37888,7 @@
     </row>
     <row r="3" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="22" x14ac:dyDescent="0.25">
@@ -38573,378 +37902,378 @@
       </c>
     </row>
     <row r="6" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
-        <v>198</v>
+      <c r="B6" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>154</v>
+    <row r="8" spans="2:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>158</v>
+      <c r="B9" s="13" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>152</v>
+    <row r="11" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>170</v>
+    <row r="12" spans="2:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>133</v>
+    <row r="13" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
-        <v>192</v>
+      <c r="B14" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>135</v>
+    <row r="23" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="20" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="16" t="s">
-        <v>195</v>
+      <c r="B25" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
-        <v>167</v>
+    <row r="31" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
-        <v>161</v>
+    <row r="32" spans="2:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
-        <v>165</v>
+      <c r="B33" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>137</v>
+    <row r="36" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="16" t="s">
-        <v>196</v>
+      <c r="B37" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B39" s="9" t="s">
-        <v>160</v>
+    <row r="39" spans="2:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
-        <v>168</v>
+      <c r="B40" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B46" s="9" t="s">
-        <v>169</v>
+    <row r="46" spans="2:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B47" s="9" t="s">
-        <v>164</v>
+      <c r="B47" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>126</v>
+    <row r="48" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>130</v>
+    <row r="49" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B50" s="16" t="s">
-        <v>190</v>
+      <c r="B50" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B53" s="9" t="s">
-        <v>147</v>
+    <row r="53" spans="2:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="B53" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B54" s="9" t="s">
-        <v>145</v>
+      <c r="B54" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>129</v>
+    <row r="56" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B56" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B57" s="16" t="s">
-        <v>190</v>
+      <c r="B57" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
-        <v>149</v>
+    <row r="59" spans="2:2" ht="22" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B60" s="9" t="s">
-        <v>148</v>
+    <row r="60" spans="2:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B61" s="9" t="s">
-        <v>147</v>
+      <c r="B61" s="13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>128</v>
+    <row r="63" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B63" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B64" s="16" t="s">
-        <v>190</v>
+      <c r="B64" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
-        <v>145</v>
+    <row r="68" spans="2:2" ht="20" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B69" s="9" t="s">
-        <v>146</v>
+      <c r="B69" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>127</v>
+    <row r="70" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B71" s="16" t="s">
-        <v>190</v>
+      <c r="B71" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="22" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="20" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B78" s="16" t="s">
-        <v>202</v>
+      <c r="B78" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="16" x14ac:dyDescent="0.2">
@@ -38953,319 +38282,195 @@
       </c>
     </row>
     <row r="82" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B82" s="9" t="s">
-        <v>172</v>
+      <c r="B82" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B83" s="9" t="s">
-        <v>175</v>
-      </c>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B84" s="9" t="s">
-        <v>176</v>
-      </c>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
-        <v>140</v>
-      </c>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B86" s="16" t="s">
-        <v>201</v>
-      </c>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B87" s="9" t="s">
-        <v>174</v>
-      </c>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B88" s="9" t="s">
-        <v>173</v>
-      </c>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B89" s="9" t="s">
-        <v>171</v>
-      </c>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B90" s="9" t="s">
-        <v>172</v>
-      </c>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B91" s="9" t="s">
-        <v>175</v>
-      </c>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B92" s="9" t="s">
-        <v>176</v>
-      </c>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
-        <v>142</v>
-      </c>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
-        <v>143</v>
-      </c>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B95" s="16" t="s">
-        <v>207</v>
-      </c>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B96" s="9" t="s">
-        <v>177</v>
-      </c>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B97" s="9" t="s">
-        <v>179</v>
-      </c>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B98" s="9" t="s">
-        <v>178</v>
-      </c>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>211</v>
-      </c>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
-        <v>181</v>
-      </c>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B101" s="16" t="s">
-        <v>191</v>
-      </c>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B102" s="9" t="s">
-        <v>212</v>
-      </c>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="11">
-        <v>0</v>
-      </c>
+      <c r="B103"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="13">
-        <v>0</v>
-      </c>
+      <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B105" s="12" t="s">
-        <v>215</v>
-      </c>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B106" s="10" t="s">
-        <v>182</v>
-      </c>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B107" s="16" t="s">
-        <v>199</v>
-      </c>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B108" s="9" t="s">
-        <v>212</v>
-      </c>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="11">
-        <v>0</v>
-      </c>
+      <c r="B109"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="13">
-        <v>0</v>
-      </c>
+      <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B111" s="12" t="s">
-        <v>215</v>
-      </c>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" ht="40" x14ac:dyDescent="0.25">
-      <c r="B112" s="10" t="s">
-        <v>183</v>
-      </c>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B113" s="16" t="s">
-        <v>200</v>
-      </c>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B114" s="9" t="s">
-        <v>212</v>
-      </c>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="11">
-        <v>0</v>
-      </c>
+      <c r="B115"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="13">
-        <v>0</v>
-      </c>
+      <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B117" s="12" t="s">
-        <v>215</v>
-      </c>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B118" s="8" t="s">
-        <v>213</v>
-      </c>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B119" s="10" t="s">
-        <v>184</v>
-      </c>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B120" s="16" t="s">
-        <v>203</v>
-      </c>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B121" s="9" t="s">
-        <v>212</v>
-      </c>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="11">
-        <v>0</v>
-      </c>
+      <c r="B122"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="13">
-        <v>0</v>
-      </c>
+      <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B124" s="12" t="s">
-        <v>215</v>
-      </c>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" ht="22" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
-        <v>214</v>
-      </c>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B126" s="10" t="s">
-        <v>185</v>
-      </c>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B127" s="16" t="s">
-        <v>204</v>
-      </c>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B128" s="9" t="s">
-        <v>212</v>
-      </c>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="11">
-        <v>0</v>
-      </c>
+      <c r="B129"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="13">
-        <v>0</v>
-      </c>
+      <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B131" s="12" t="s">
-        <v>215</v>
-      </c>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B132" s="10" t="s">
-        <v>186</v>
-      </c>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B133" s="16" t="s">
-        <v>205</v>
-      </c>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B134" s="9" t="s">
-        <v>212</v>
-      </c>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="11">
-        <v>0</v>
-      </c>
+      <c r="B135"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="13">
-        <v>0</v>
-      </c>
+      <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B137" s="12" t="s">
-        <v>215</v>
-      </c>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" ht="20" x14ac:dyDescent="0.25">
-      <c r="B138" s="10" t="s">
-        <v>187</v>
-      </c>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B139" s="16" t="s">
-        <v>206</v>
-      </c>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B140" s="9" t="s">
-        <v>212</v>
-      </c>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="11">
-        <v>0</v>
-      </c>
+      <c r="B141"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="13">
-        <v>0</v>
-      </c>
+      <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="B143" s="12" t="s">
-        <v>215</v>
-      </c>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B144" s="6" t="s">
-        <v>144</v>
-      </c>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145"/>
@@ -39514,94 +38719,94 @@
     <col min="12" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>216</v>
+      <c r="J1" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K3" s="7" t="b">
         <v>0</v>
@@ -39609,34 +38814,34 @@
     </row>
     <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="b">
         <v>0</v>
@@ -39644,34 +38849,34 @@
     </row>
     <row r="5" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="b">
         <v>0</v>
@@ -39679,34 +38884,34 @@
     </row>
     <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K6" s="7" t="b">
         <v>0</v>
@@ -39714,34 +38919,34 @@
     </row>
     <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="b">
         <v>0</v>
@@ -39749,34 +38954,34 @@
     </row>
     <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="b">
         <v>1</v>
@@ -39784,34 +38989,34 @@
     </row>
     <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K9" s="7" t="b">
         <v>0</v>
@@ -39819,34 +39024,34 @@
     </row>
     <row r="10" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="b">
         <v>0</v>
@@ -39854,34 +39059,34 @@
     </row>
     <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="b">
         <v>0</v>
@@ -39889,34 +39094,34 @@
     </row>
     <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="b">
         <v>0</v>
@@ -39924,34 +39129,34 @@
     </row>
     <row r="13" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="b">
         <v>0</v>
@@ -39959,34 +39164,34 @@
     </row>
     <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="b">
         <v>0</v>
@@ -39994,34 +39199,34 @@
     </row>
     <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K15" s="7" t="b">
         <v>0</v>
@@ -40029,34 +39234,34 @@
     </row>
     <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>131</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="b">
         <v>1</v>
@@ -40064,34 +39269,34 @@
     </row>
     <row r="17" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="b">
         <v>1</v>
@@ -40099,34 +39304,34 @@
     </row>
     <row r="18" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="b">
         <v>1</v>
@@ -40134,34 +39339,34 @@
     </row>
     <row r="19" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="b">
         <v>1</v>
@@ -40169,34 +39374,34 @@
     </row>
     <row r="20" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="b">
         <v>1</v>
@@ -40204,34 +39409,34 @@
     </row>
     <row r="21" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K21" s="7" t="b">
         <v>1</v>
@@ -40239,34 +39444,34 @@
     </row>
     <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="b">
         <v>1</v>
@@ -40274,34 +39479,34 @@
     </row>
     <row r="23" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="b">
         <v>1</v>
@@ -40309,34 +39514,34 @@
     </row>
     <row r="24" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K24" s="7" t="b">
         <v>1</v>
@@ -40344,34 +39549,34 @@
     </row>
     <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K25" s="7" t="b">
         <v>1</v>
@@ -40379,34 +39584,34 @@
     </row>
     <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K26" s="7" t="b">
         <v>1</v>
@@ -40414,34 +39619,34 @@
     </row>
     <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K27" s="7" t="b">
         <v>0</v>
@@ -40449,34 +39654,34 @@
     </row>
     <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K28" s="7" t="b">
         <v>0</v>
@@ -40484,34 +39689,34 @@
     </row>
     <row r="29" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="b">
         <v>0</v>
@@ -40519,34 +39724,34 @@
     </row>
     <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K30" s="7" t="b">
         <v>0</v>
@@ -40554,34 +39759,34 @@
     </row>
     <row r="31" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K31" s="7" t="b">
         <v>0</v>
@@ -40589,34 +39794,34 @@
     </row>
     <row r="32" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K32" s="7" t="b">
         <v>1</v>
@@ -40624,34 +39829,34 @@
     </row>
     <row r="33" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K33" s="7" t="b">
         <v>1</v>
@@ -40659,34 +39864,34 @@
     </row>
     <row r="34" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K34" s="7" t="b">
         <v>1</v>
@@ -40694,34 +39899,34 @@
     </row>
     <row r="35" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K35" s="7" t="b">
         <v>1</v>
@@ -40729,34 +39934,34 @@
     </row>
     <row r="36" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>137</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K36" s="7" t="b">
         <v>1</v>
@@ -40764,34 +39969,34 @@
     </row>
     <row r="37" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K37" s="7" t="b">
         <v>1</v>
@@ -40799,34 +40004,34 @@
     </row>
     <row r="38" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K38" s="7" t="b">
         <v>1</v>
@@ -40834,34 +40039,34 @@
     </row>
     <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K39" s="7" t="b">
         <v>1</v>
@@ -40869,34 +40074,34 @@
     </row>
     <row r="40" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="K40" s="7" t="b">
         <v>1</v>
@@ -40904,34 +40109,34 @@
     </row>
     <row r="41" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="K41" s="7" t="b">
         <v>1</v>
@@ -40939,34 +40144,34 @@
     </row>
     <row r="42" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K42" s="7" t="b">
         <v>1</v>
@@ -40974,34 +40179,34 @@
     </row>
     <row r="43" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K43" s="7" t="b">
         <v>1</v>
@@ -41009,34 +40214,34 @@
     </row>
     <row r="44" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K44" s="7" t="b">
         <v>1</v>
@@ -41044,34 +40249,34 @@
     </row>
     <row r="45" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K45" s="7" t="b">
         <v>1</v>
@@ -41079,34 +40284,34 @@
     </row>
     <row r="46" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="K46" s="7" t="b">
         <v>1</v>
@@ -41114,34 +40319,34 @@
     </row>
     <row r="47" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K47" s="7" t="b">
         <v>1</v>
@@ -41149,34 +40354,34 @@
     </row>
     <row r="48" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H48" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="K48" s="7" t="b">
         <v>1</v>
@@ -41184,34 +40389,34 @@
     </row>
     <row r="49" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K49" s="7" t="b">
         <v>1</v>
@@ -41219,34 +40424,34 @@
     </row>
     <row r="50" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K50" s="7" t="b">
         <v>1</v>
@@ -41254,34 +40459,34 @@
     </row>
     <row r="51" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="K51" s="7" t="b">
         <v>1</v>
@@ -41289,34 +40494,34 @@
     </row>
     <row r="52" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K52" s="7" t="b">
         <v>1</v>
@@ -41324,34 +40529,34 @@
     </row>
     <row r="53" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="J53" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K53" s="7" t="b">
         <v>1</v>
@@ -41359,34 +40564,34 @@
     </row>
     <row r="54" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K54" s="7" t="b">
         <v>1</v>
@@ -41394,34 +40599,34 @@
     </row>
     <row r="55" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="K55" s="7" t="b">
         <v>1</v>
@@ -41429,34 +40634,34 @@
     </row>
     <row r="56" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K56" s="7" t="b">
         <v>1</v>
@@ -41464,34 +40669,34 @@
     </row>
     <row r="57" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="J57" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K57" s="7" t="b">
         <v>1</v>
@@ -41499,34 +40704,34 @@
     </row>
     <row r="58" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K58" s="7" t="b">
         <v>1</v>
@@ -41534,34 +40739,34 @@
     </row>
     <row r="59" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="K59" s="7" t="b">
         <v>1</v>
@@ -41569,34 +40774,34 @@
     </row>
     <row r="60" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K60" s="7" t="b">
         <v>1</v>
@@ -41604,34 +40809,34 @@
     </row>
     <row r="61" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K61" s="7" t="b">
         <v>1</v>
@@ -41639,34 +40844,34 @@
     </row>
     <row r="62" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K62" s="7" t="b">
         <v>1</v>
@@ -41674,34 +40879,34 @@
     </row>
     <row r="63" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="J63" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K63" s="7" t="b">
         <v>1</v>
@@ -41709,34 +40914,34 @@
     </row>
     <row r="64" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K64" s="7" t="b">
         <v>1</v>
@@ -41744,34 +40949,34 @@
     </row>
     <row r="65" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K65" s="7" t="b">
         <v>1</v>
@@ -41779,34 +40984,34 @@
     </row>
     <row r="66" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K66" s="7" t="b">
         <v>1</v>
@@ -41814,34 +41019,34 @@
     </row>
     <row r="67" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K67" s="7" t="b">
         <v>1</v>
@@ -41849,172 +41054,172 @@
     </row>
     <row r="68" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="G69" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K74" s="7" t="b">
         <v>1</v>
@@ -42022,34 +41227,34 @@
     </row>
     <row r="75" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K75" s="7" t="b">
         <v>1</v>
@@ -42057,34 +41262,34 @@
     </row>
     <row r="76" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="H76" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K76" s="7" t="b">
         <v>1</v>
@@ -42606,19 +41811,19 @@
         <v>125</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="DY1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EA1" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:131" x14ac:dyDescent="0.2">
